--- a/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,99</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 12,66</t>
+          <t>-9,01; 11,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 8,62</t>
+          <t>-9,33; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 21,03</t>
+          <t>-15,59; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 17,61</t>
+          <t>-3,94; 8,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 8,38</t>
+          <t>-5,4; 6,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,6</t>
+          <t>-6,46; 8,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 16,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 8,94</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 5,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 4,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-1,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>-21,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>110,4%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-11,02%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 74,53</t>
+          <t>-29,39; 69,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 50,37</t>
+          <t>-32,83; 56,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 128,6</t>
+          <t>-56,86; 34,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 95,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 81,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 208,11</t>
+          <t>-23,03; 103,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 64,57</t>
+          <t>-31,39; 71,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 44,45</t>
+          <t>-43,14; 96,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,8; 125,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 66,78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 44,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-36,97; 33,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 1,11</t>
+          <t>-8,75; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,97</t>
+          <t>-7,97; 5,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 3,48</t>
+          <t>-11,45; 5,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,4</t>
+          <t>-6,96; 4,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 0,86</t>
+          <t>-5,1; 5,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 1,22</t>
+          <t>-9,59; 2,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 2,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 4,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 1,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-12,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-14,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 3,53</t>
+          <t>-25,74; 21,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 3,15</t>
+          <t>-23,76; 20,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 11,12</t>
+          <t>-35,94; 21,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 14,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 41,7</t>
+          <t>-27,91; 24,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 3,15</t>
+          <t>-20,09; 32,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 5,34</t>
+          <t>-40,08; 12,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 16,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,44; 11,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 20,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-31,78; 8,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,66</t>
+          <t>-8,51; 6,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,28</t>
+          <t>-9,69; 4,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 7,07</t>
+          <t>-12,35; 5,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,17</t>
+          <t>-6,86; 4,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,1</t>
+          <t>-5,7; 5,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,13</t>
+          <t>-8,79; 2,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 3,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 3,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 1,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-19,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-19,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 54,56</t>
+          <t>-36,54; 49,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 30,17</t>
+          <t>-40,57; 33,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 49,95</t>
+          <t>-53,49; 39,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 31,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 32,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 37,24</t>
+          <t>-34,58; 32,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 27,81</t>
+          <t>-27,08; 43,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 21,79</t>
+          <t>-44,95; 17,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 29,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 26,57</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 22,99</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-42,09; 12,69</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,87</t>
+          <t>-12,94; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,75</t>
+          <t>-15,47; -0,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,85</t>
+          <t>-7,33; 3,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,56</t>
+          <t>-8,27; 2,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 1,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; -0,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>-17,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>-25,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 11,75</t>
+          <t>-37,57; 7,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 27,6</t>
+          <t>-42,89; 0,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 16,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 19,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,47; 47,6</t>
+          <t>-33,19; 20,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 2,83</t>
+          <t>-37,79; 11,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 29,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-29,29; 5,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-35,37; -0,48</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,13</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-4,6</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 1,49</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; -0,87</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; -1,63</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,07</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 2,52</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; -0,02</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 0,43</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; -0,03</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; -1,95</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-17,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-22,17%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-8,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-11,39%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-20,09%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 6,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-29,2; -3,41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-35,29; -5,98</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 11,83</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 14,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,24; 0,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 2,26</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; -0,05</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; -9,04</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
